--- a/tests/data/input/一级报告详情测试用例-09001.xlsx
+++ b/tests/data/input/一级报告详情测试用例-09001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4419EB45-21A3-4CCD-ABB3-8954FFF5A886}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="103">
   <si>
     <t>用例编号</t>
   </si>
@@ -88,9 +94,6 @@
 info_risk_other_loan_record.industry[1]="BAK"</t>
   </si>
   <si>
-    <t>oth_loan_apply_bank_1m=0</t>
-  </si>
-  <si>
     <t>oth_loan_apply_bank_3m</t>
   </si>
   <si>
@@ -466,19 +469,130 @@
   </si>
   <si>
     <t>oth_loan_apply_other_his=2</t>
+  </si>
+  <si>
+    <t>info_risk_other_loan_record.other_loan_id;
+info_risk_other_loan_record.create_time[0]="2019-07-01";
+info_risk_other_loan_record.data_build_time[0]="2019-06-28";
+info_risk_other_loan_record.reason_code[0]="01";
+info_risk_other_loan_record.industry[0]="BAK";
+info_risk_other_loan_record.create_time[1]="2019-07-01";
+info_risk_other_loan_record.data_build_time[1]="2019-06-28";
+info_risk_other_loan_record.reason_code[1]="99";
+info_risk_other_loan_record.industry[1]="BAK"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oth_loan_apply_bank_7d=2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_risk_other_loan_record.other_loan_id;
+info_risk_other_loan_record.create_time[0]="2019-07-01";
+info_risk_other_loan_record.data_build_time[0]="2019-06-25";
+info_risk_other_loan_record.reason_code[0]="01";
+info_risk_other_loan_record.industry[0]="BAK";
+info_risk_other_loan_record.create_time[1]="2019-07-01";
+info_risk_other_loan_record.data_build_time[1]="2019-06-24";
+info_risk_other_loan_record.reason_code[1]="99";
+info_risk_other_loan_record.industry[1]="BAK"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_risk_other_loan_record.other_loan_id;
+info_risk_other_loan_record.create_time[0]="2019-07-01";
+info_risk_other_loan_record.data_build_time[0]="2019-06-25";
+info_risk_other_loan_record.reason_code[0]="01";
+info_risk_other_loan_record.industry[0]="BAKC";
+info_risk_other_loan_record.create_time[1]="2019-07-01";
+info_risk_other_loan_record.data_build_time[1]="2019-06-24";
+info_risk_other_loan_record.reason_code[1]="99";
+info_risk_other_loan_record.industry[1]="BAKC"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oth_loan_apply_bank_1m=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>oth_loan_apply_other_his=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_risk_other_loan_record.other_loan_id;
+info_risk_other_loan_record.create_time[0]="2019-07-01";
+info_risk_other_loan_record.data_build_time[0]="2019-02-28";
+info_risk_other_loan_record.reason_code[0]="01";
+info_risk_other_loan_record.industry[0]="P2P";
+info_risk_other_loan_record.create_time[1]="2019-07-01";
+info_risk_other_loan_record.data_build_time[1]="2017-05-01";
+info_risk_other_loan_record.reason_code[1]="99";
+info_risk_other_loan_record.industry[1]="CNS"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>info_risk_other_loan_record.other_loan_id;
+info_risk_other_loan_record.create_time[0]="2019-07-01";
+info_risk_other_loan_record.data_build_time[0]="2019-02-28";
+info_risk_other_loan_record.reason_code[0]="01";
+info_risk_other_loan_record.industry[0]="BAK";
+info_risk_other_loan_record.create_time[1]="2019-07-01";
+info_risk_other_loan_record.data_build_time[1]="2017-05-01";
+info_risk_other_loan_record.reason_code[1]="99";
+info_risk_other_loan_record.industry[1]="M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L"</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oth_loan_apply_bank_7d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oth_loan_apply_bank_7d=1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,154 +604,34 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,198 +640,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -884,261 +692,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,82 +717,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1484,27 +1021,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="46.125" customWidth="1"/>
-    <col min="7" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="5" max="5" width="46.08984375" customWidth="1"/>
+    <col min="7" max="7" width="18.90625" customWidth="1"/>
+    <col min="8" max="8" width="21.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="42.75" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1562,25 +1097,25 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>15</v>
@@ -1588,25 +1123,25 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>15</v>
@@ -1614,25 +1149,25 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>21</v>
+      <c r="C5" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>22</v>
+      <c r="E5" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
+      <c r="G5" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>15</v>
@@ -1640,25 +1175,25 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="202.5" spans="1:10">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="238" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>24</v>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
+      <c r="E6" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
+      <c r="G6" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>15</v>
@@ -1666,25 +1201,23 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="189" spans="1:10">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="E7" s="10"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
+      <c r="G7" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>15</v>
@@ -1692,25 +1225,25 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
@@ -1718,25 +1251,25 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>15</v>
@@ -1744,25 +1277,25 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>15</v>
@@ -1770,25 +1303,25 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="196" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>15</v>
@@ -1796,25 +1329,25 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="202.5" spans="1:10">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>41</v>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="8" t="s">
-        <v>43</v>
+      <c r="G12" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>15</v>
@@ -1822,25 +1355,25 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="202.5" spans="1:10">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="8" t="s">
-        <v>46</v>
+      <c r="G13" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>15</v>
@@ -1848,25 +1381,25 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="202.5" spans="1:10">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>15</v>
@@ -1874,25 +1407,25 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>15</v>
@@ -1900,25 +1433,25 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>53</v>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="7" t="s">
-        <v>55</v>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>15</v>
@@ -1926,25 +1459,25 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="216" spans="1:10">
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>57</v>
+      <c r="G17" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
@@ -1952,129 +1485,129 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" ht="216" spans="1:10">
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>60</v>
+      <c r="G18" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="216" spans="1:10">
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>62</v>
+      <c r="G19" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="216" spans="1:10">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>64</v>
+      <c r="G20" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="216" spans="1:10">
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="216" spans="1:10">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>15</v>
@@ -2082,25 +1615,25 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" ht="216" spans="1:10">
+    <row r="23" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>15</v>
@@ -2108,25 +1641,25 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" ht="216" spans="1:10">
+    <row r="24" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>15</v>
@@ -2134,25 +1667,25 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" ht="216" spans="1:10">
+    <row r="25" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>15</v>
@@ -2160,25 +1693,25 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" ht="216" spans="1:10">
+    <row r="26" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>15</v>
@@ -2186,25 +1719,25 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" ht="216" spans="1:10">
+    <row r="27" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
@@ -2212,25 +1745,25 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" ht="216" spans="1:10">
+    <row r="28" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
@@ -2238,25 +1771,25 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" ht="202.5" spans="1:10">
+    <row r="29" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>15</v>
@@ -2264,25 +1797,25 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" ht="216" spans="1:10">
+    <row r="30" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>15</v>
@@ -2290,25 +1823,25 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" ht="216" spans="1:10">
+    <row r="31" spans="1:10" ht="224" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>15</v>
@@ -2316,8 +1849,161 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
+    <row r="32" spans="1:10" ht="224" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" ht="224" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" ht="224" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" ht="224" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="224" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>30</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>